--- a/assets/emailList.xlsx
+++ b/assets/emailList.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,34 +28,34 @@
     <t>John Doe</t>
   </si>
   <si>
+    <t>22bcs10252@cuchd.in</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
     <t>Jane Smith</t>
   </si>
   <si>
+    <t>sarafgourav240@gmail.com</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
     <t>Bob Lee</t>
   </si>
   <si>
+    <t>Samirqureshi1482@gmail.com</t>
+  </si>
+  <si>
+    <t>Company C</t>
+  </si>
+  <si>
     <t>Alice Kim</t>
   </si>
   <si>
-    <t>johndoe@example.com</t>
-  </si>
-  <si>
-    <t>janesmith@example.com</t>
-  </si>
-  <si>
-    <t>boblee@example.com</t>
-  </si>
-  <si>
-    <t>alicekim@example.com</t>
-  </si>
-  <si>
-    <t>Company A</t>
-  </si>
-  <si>
-    <t>Company B</t>
-  </si>
-  <si>
-    <t>Company C</t>
+    <t>sheelashivjisingh@gmail.com</t>
   </si>
   <si>
     <t>Company D</t>
@@ -64,13 +64,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,19 +84,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,21 +449,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,17 +1041,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -437,47 +1075,54 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="22bcs10252@cuchd.in"/>
+    <hyperlink ref="B3" r:id="rId2" display="sarafgourav240@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="Samirqureshi1482@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="sheelashivjisingh@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/assets/emailList.xlsx
+++ b/assets/emailList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -25,34 +25,7 @@
     <t>Company</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>22bcs10252@cuchd.in</t>
-  </si>
-  <si>
-    <t>Company A</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>sarafgourav240@gmail.com</t>
-  </si>
-  <si>
-    <t>Company B</t>
-  </si>
-  <si>
-    <t>Bob Lee</t>
-  </si>
-  <si>
-    <t>Samirqureshi1482@gmail.com</t>
-  </si>
-  <si>
-    <t>Company C</t>
-  </si>
-  <si>
-    <t>Alice Kim</t>
+    <t>Sheela Singh</t>
   </si>
   <si>
     <t>sheelashivjisingh@gmail.com</t>
@@ -700,7 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,7 +1023,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1082,45 +1055,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="22bcs10252@cuchd.in"/>
-    <hyperlink ref="B3" r:id="rId2" display="sarafgourav240@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="Samirqureshi1482@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="sheelashivjisingh@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="sheelashivjisingh@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/assets/emailList.xlsx
+++ b/assets/emailList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -25,13 +25,874 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Sheela Singh</t>
-  </si>
-  <si>
-    <t>sheelashivjisingh@gmail.com</t>
-  </si>
-  <si>
-    <t>Company D</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Aakanksha Maheshwari</t>
+  </si>
+  <si>
+    <t>aakanksha.maheshwari@synoriq.in</t>
+  </si>
+  <si>
+    <t>Synoriq</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Aanchal Chopra</t>
+  </si>
+  <si>
+    <t>aanchal.chopra@transunion.com</t>
+  </si>
+  <si>
+    <t>TransUnion CIBIL</t>
+  </si>
+  <si>
+    <t>Aanchal Sapra</t>
+  </si>
+  <si>
+    <t>aanchal.sapra@lrn.com</t>
+  </si>
+  <si>
+    <t>LRN</t>
+  </si>
+  <si>
+    <t>Aarti Soni</t>
+  </si>
+  <si>
+    <t>aarti.soni@dhanushinfotech.com</t>
+  </si>
+  <si>
+    <t>Dhanush InfoTech</t>
+  </si>
+  <si>
+    <t>Aarushi Goel</t>
+  </si>
+  <si>
+    <t>aarushi.goel@betterplace.co.in</t>
+  </si>
+  <si>
+    <t>BetterPlace</t>
+  </si>
+  <si>
+    <t>Aastha Batra</t>
+  </si>
+  <si>
+    <t>aastha.batra@guavus.com</t>
+  </si>
+  <si>
+    <t>Guavus</t>
+  </si>
+  <si>
+    <t>Abanti Dasgupta</t>
+  </si>
+  <si>
+    <t>abanti.dasgupta@aes.in</t>
+  </si>
+  <si>
+    <t>AES Technologies India</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>abhi@datapure.co</t>
+  </si>
+  <si>
+    <t>DataPure</t>
+  </si>
+  <si>
+    <t>Abhijit</t>
+  </si>
+  <si>
+    <t>abhijit@agilecrm.com</t>
+  </si>
+  <si>
+    <t>Mantra</t>
+  </si>
+  <si>
+    <t>Abhijit Puri</t>
+  </si>
+  <si>
+    <t>abhijit.puri@cuelogic.com</t>
+  </si>
+  <si>
+    <t>Cuelogic Technologies</t>
+  </si>
+  <si>
+    <t>Abhilasha Chhawachharia</t>
+  </si>
+  <si>
+    <t>abhilasha.c@krazymantra.com</t>
+  </si>
+  <si>
+    <t>Krazy Mantra Group of Companies</t>
+  </si>
+  <si>
+    <t>Abhinav Jain</t>
+  </si>
+  <si>
+    <t>abhinav.jain@shl.com</t>
+  </si>
+  <si>
+    <t>Aspiring Minds</t>
+  </si>
+  <si>
+    <t>Abhinay Samson</t>
+  </si>
+  <si>
+    <t>abhinay.samson@genzeon.com</t>
+  </si>
+  <si>
+    <t>Genzeon</t>
+  </si>
+  <si>
+    <t>Abhinaya R</t>
+  </si>
+  <si>
+    <t>abhinaya.sr@soroco.com</t>
+  </si>
+  <si>
+    <t>Soroco</t>
+  </si>
+  <si>
+    <t>Abhishek Chatterjee</t>
+  </si>
+  <si>
+    <t>achatterjee@itidata.com</t>
+  </si>
+  <si>
+    <t>ITI Data</t>
+  </si>
+  <si>
+    <t>Abhishek Jha</t>
+  </si>
+  <si>
+    <t>abhishek.jha@writerinformation.com</t>
+  </si>
+  <si>
+    <t>Writer Information</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar</t>
+  </si>
+  <si>
+    <t>abhishek.kumar1@crownstack.com</t>
+  </si>
+  <si>
+    <t>Crownstack</t>
+  </si>
+  <si>
+    <t>Abhishek Roy</t>
+  </si>
+  <si>
+    <t>aroy@qanalysts.com</t>
+  </si>
+  <si>
+    <t>Q Analysts</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>abhishek@hammoq.com</t>
+  </si>
+  <si>
+    <t>Hammoq</t>
+  </si>
+  <si>
+    <t>Aboli Kurve</t>
+  </si>
+  <si>
+    <t>aboli.kurve@altiusdata.com</t>
+  </si>
+  <si>
+    <t>Altius</t>
+  </si>
+  <si>
+    <t>Achin Das</t>
+  </si>
+  <si>
+    <t>achin.das@ults.in</t>
+  </si>
+  <si>
+    <t>UL Technology Solutions</t>
+  </si>
+  <si>
+    <t>Achintya Jayakumar</t>
+  </si>
+  <si>
+    <t>achintya@lentra.ai</t>
+  </si>
+  <si>
+    <t>Lentra</t>
+  </si>
+  <si>
+    <t>Aditi Gupta</t>
+  </si>
+  <si>
+    <t>aditi.gupta@dazeworks.com</t>
+  </si>
+  <si>
+    <t>Dazeworks Inc</t>
+  </si>
+  <si>
+    <t>Aditi Pandya</t>
+  </si>
+  <si>
+    <t>aditi@smartcow.ai</t>
+  </si>
+  <si>
+    <t>SmartCow</t>
+  </si>
+  <si>
+    <t>Aditi Tandon</t>
+  </si>
+  <si>
+    <t>aditi.tandon@ambitsoftware.com</t>
+  </si>
+  <si>
+    <t>Ambit Software</t>
+  </si>
+  <si>
+    <t>Aditya Jishtu</t>
+  </si>
+  <si>
+    <t>adityaj@aditistaffing.com</t>
+  </si>
+  <si>
+    <t>Aditi Consulting</t>
+  </si>
+  <si>
+    <t>Advika Ladkani</t>
+  </si>
+  <si>
+    <t>advika@startupnation.com</t>
+  </si>
+  <si>
+    <t>StartUP</t>
+  </si>
+  <si>
+    <t>Afsal Abdulkhani</t>
+  </si>
+  <si>
+    <t>afsal.abdulkhani@zafin.com</t>
+  </si>
+  <si>
+    <t>Zafin</t>
+  </si>
+  <si>
+    <t>Afzal Girach</t>
+  </si>
+  <si>
+    <t>afzal.girach@softnautics.com</t>
+  </si>
+  <si>
+    <t>Softnautics</t>
+  </si>
+  <si>
+    <t>Ajanta Ghosh</t>
+  </si>
+  <si>
+    <t>ajanta.ghosh@aabsys.com</t>
+  </si>
+  <si>
+    <t>AABSyS IT</t>
+  </si>
+  <si>
+    <t>Ajay Bhatia</t>
+  </si>
+  <si>
+    <t>ajay.bhatia@xansa.com</t>
+  </si>
+  <si>
+    <t>Xansa plc</t>
+  </si>
+  <si>
+    <t>Ajay Joshi</t>
+  </si>
+  <si>
+    <t>ajay.joshi@radixweb.com</t>
+  </si>
+  <si>
+    <t>Radixweb</t>
+  </si>
+  <si>
+    <t>Ajay Mudliar</t>
+  </si>
+  <si>
+    <t>ajay.mudliar@fulcrumdigital.com</t>
+  </si>
+  <si>
+    <t>Fulcrum Digital Inc</t>
+  </si>
+  <si>
+    <t>Ajay Tanwar</t>
+  </si>
+  <si>
+    <t>ajay.tanwar@puresoftware.com</t>
+  </si>
+  <si>
+    <t>PureSoftware</t>
+  </si>
+  <si>
+    <t>Ajitha D</t>
+  </si>
+  <si>
+    <t>ajitha.d@sima.ai</t>
+  </si>
+  <si>
+    <t>SiMa.ai</t>
+  </si>
+  <si>
+    <t>Akanksha Choudhary</t>
+  </si>
+  <si>
+    <t>akanksha@hanu.com</t>
+  </si>
+  <si>
+    <t>Hanu Software</t>
+  </si>
+  <si>
+    <t>Akanksha Puri</t>
+  </si>
+  <si>
+    <t>akanksha.puri@sourcefuse.com</t>
+  </si>
+  <si>
+    <t>SourceFuse Technologies</t>
+  </si>
+  <si>
+    <t>Akanksha Sogani</t>
+  </si>
+  <si>
+    <t>akanksha.sogani@perennialsys.com</t>
+  </si>
+  <si>
+    <t>Perennial Systems</t>
+  </si>
+  <si>
+    <t>Akhil Jogiparthi</t>
+  </si>
+  <si>
+    <t>akhil@ibhubs.co</t>
+  </si>
+  <si>
+    <t>iB Hubs</t>
+  </si>
+  <si>
+    <t>Akhila Chandan</t>
+  </si>
+  <si>
+    <t>akhila@estuate.com</t>
+  </si>
+  <si>
+    <t>Estuate,</t>
+  </si>
+  <si>
+    <t>Akram Mohammad</t>
+  </si>
+  <si>
+    <t>akram.mohammad@colruytgroup.com</t>
+  </si>
+  <si>
+    <t>Colruyt India</t>
+  </si>
+  <si>
+    <t>Akriti</t>
+  </si>
+  <si>
+    <t>akriti@elsner.in</t>
+  </si>
+  <si>
+    <t>Elsner Technologies</t>
+  </si>
+  <si>
+    <t>Akshata Bhandare</t>
+  </si>
+  <si>
+    <t>akshata.bhandare@windmill.ch</t>
+  </si>
+  <si>
+    <t>Windmill</t>
+  </si>
+  <si>
+    <t>Albino Mascarenhas</t>
+  </si>
+  <si>
+    <t>albino@pixis.ai</t>
+  </si>
+  <si>
+    <t>Pyxis One</t>
+  </si>
+  <si>
+    <t>Allwyn Richard</t>
+  </si>
+  <si>
+    <t>allwyn.r@qbrainx.com</t>
+  </si>
+  <si>
+    <t>QBrainX Inc</t>
+  </si>
+  <si>
+    <t>Alok Baghel</t>
+  </si>
+  <si>
+    <t>alok.singh@recro.io</t>
+  </si>
+  <si>
+    <t>Recro</t>
+  </si>
+  <si>
+    <t>Alok Kumar</t>
+  </si>
+  <si>
+    <t>alok.kumar@vfislk.com</t>
+  </si>
+  <si>
+    <t>VFI SLK</t>
+  </si>
+  <si>
+    <t>Alwyn Barretto</t>
+  </si>
+  <si>
+    <t>alwyn.barretto@infrasofttech.com</t>
+  </si>
+  <si>
+    <t>Infrasoft Technologies</t>
+  </si>
+  <si>
+    <t>Aman Khan</t>
+  </si>
+  <si>
+    <t>aman.khan@areteanstech.com</t>
+  </si>
+  <si>
+    <t>Areteans</t>
+  </si>
+  <si>
+    <t>Amandeep Kaur</t>
+  </si>
+  <si>
+    <t>amandeep.k@antiersolutions.com</t>
+  </si>
+  <si>
+    <t>Antier Solutions</t>
+  </si>
+  <si>
+    <t>Amar Sinha</t>
+  </si>
+  <si>
+    <t>amar.sinha@nitorinfotech.com</t>
+  </si>
+  <si>
+    <t>Nitor Infotech</t>
+  </si>
+  <si>
+    <t>Ambrish Kanungo</t>
+  </si>
+  <si>
+    <t>ambrish.kanungo@beyondkey.com</t>
+  </si>
+  <si>
+    <t>Beyond Key</t>
+  </si>
+  <si>
+    <t>Amiit Avaasthi</t>
+  </si>
+  <si>
+    <t>amiit.avaasthi@altudo.co</t>
+  </si>
+  <si>
+    <t>Altudo</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>amit.malhotra@wundermanthompson.com</t>
+  </si>
+  <si>
+    <t>Wunderman Thompson MSC</t>
+  </si>
+  <si>
+    <t>Amit Kataria</t>
+  </si>
+  <si>
+    <t>amit@hanu.com</t>
+  </si>
+  <si>
+    <t>Amit Prayagi</t>
+  </si>
+  <si>
+    <t>amit.prayagi@claimgenius.com</t>
+  </si>
+  <si>
+    <t>Claim Genius</t>
+  </si>
+  <si>
+    <t>Amit Ranjan</t>
+  </si>
+  <si>
+    <t>amit.ranjan@scikey.ai</t>
+  </si>
+  <si>
+    <t>SCIKEY</t>
+  </si>
+  <si>
+    <t>Amit Sahoo</t>
+  </si>
+  <si>
+    <t>amit.sahoo@areteanstech.com</t>
+  </si>
+  <si>
+    <t>Amita Shital</t>
+  </si>
+  <si>
+    <t>ashital@svam.com</t>
+  </si>
+  <si>
+    <t>SVAM International</t>
+  </si>
+  <si>
+    <t>Amitesh Verma</t>
+  </si>
+  <si>
+    <t>amitesh.verma@cheersin.com</t>
+  </si>
+  <si>
+    <t>Cheers Interactive</t>
+  </si>
+  <si>
+    <t>Amitha K</t>
+  </si>
+  <si>
+    <t>amitha.k@secure-24.com</t>
+  </si>
+  <si>
+    <t>Secure-24</t>
+  </si>
+  <si>
+    <t>Amlan Nag</t>
+  </si>
+  <si>
+    <t>amlan.nag@mjunction.in</t>
+  </si>
+  <si>
+    <t>mjunction services</t>
+  </si>
+  <si>
+    <t>Amresh Mehra</t>
+  </si>
+  <si>
+    <t>amreshm@zendrive.com</t>
+  </si>
+  <si>
+    <t>Zendrive</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>akishore@dimagi.com</t>
+  </si>
+  <si>
+    <t>Dimagi</t>
+  </si>
+  <si>
+    <t>Amrita Cheema</t>
+  </si>
+  <si>
+    <t>amrita.cheema@loconav.com</t>
+  </si>
+  <si>
+    <t>LocoNav</t>
+  </si>
+  <si>
+    <t>Amrita Singh</t>
+  </si>
+  <si>
+    <t>amrita.singh@cogentinfo.com</t>
+  </si>
+  <si>
+    <t>COGENT Infotech</t>
+  </si>
+  <si>
+    <t>amrita.singh@itbd.net</t>
+  </si>
+  <si>
+    <t>IT BY DESIGN</t>
+  </si>
+  <si>
+    <t>Amrita Tripathi</t>
+  </si>
+  <si>
+    <t>amrita@sdnaglobal.com</t>
+  </si>
+  <si>
+    <t>Stanley David and Associates</t>
+  </si>
+  <si>
+    <t>Amritesh Shukla</t>
+  </si>
+  <si>
+    <t>amritesh.shukla@mygate.com</t>
+  </si>
+  <si>
+    <t>MyGate</t>
+  </si>
+  <si>
+    <t>Amruta Urkude</t>
+  </si>
+  <si>
+    <t>amruta@greatplaceitservices.com</t>
+  </si>
+  <si>
+    <t>Great Place IT Services</t>
+  </si>
+  <si>
+    <t>Amulya</t>
+  </si>
+  <si>
+    <t>amulya.ms@utthunga.com</t>
+  </si>
+  <si>
+    <t>Utthunga</t>
+  </si>
+  <si>
+    <t>Anand Christopher</t>
+  </si>
+  <si>
+    <t>anand.christopher@grassrootsbpo.com</t>
+  </si>
+  <si>
+    <t>Grassroots</t>
+  </si>
+  <si>
+    <t>Anand E</t>
+  </si>
+  <si>
+    <t>anand.e@increff.com</t>
+  </si>
+  <si>
+    <t>Increff</t>
+  </si>
+  <si>
+    <t>Anand K</t>
+  </si>
+  <si>
+    <t>ak@8kmiles.com</t>
+  </si>
+  <si>
+    <t>SecureKloud Technologies</t>
+  </si>
+  <si>
+    <t>Anand Khot</t>
+  </si>
+  <si>
+    <t>anandk@pharmarack.com</t>
+  </si>
+  <si>
+    <t>Pharmarack</t>
+  </si>
+  <si>
+    <t>Anand Rajendran</t>
+  </si>
+  <si>
+    <t>anand.r@whatarage.com</t>
+  </si>
+  <si>
+    <t>ADK Rage</t>
+  </si>
+  <si>
+    <t>Anand Sasidharan</t>
+  </si>
+  <si>
+    <t>anand@hubilo.com</t>
+  </si>
+  <si>
+    <t>Hubilo</t>
+  </si>
+  <si>
+    <t>Anand Sl</t>
+  </si>
+  <si>
+    <t>anand@auzmor.com</t>
+  </si>
+  <si>
+    <t>Auzmor</t>
+  </si>
+  <si>
+    <t>Anand Soni</t>
+  </si>
+  <si>
+    <t>anand@capsitech.com</t>
+  </si>
+  <si>
+    <t>Capsitech</t>
+  </si>
+  <si>
+    <t>Anand Thiagarajan</t>
+  </si>
+  <si>
+    <t>athiagarajan@inniveinc.com</t>
+  </si>
+  <si>
+    <t>Innive Inc</t>
+  </si>
+  <si>
+    <t>Anandhi Srinivasan</t>
+  </si>
+  <si>
+    <t>anandhi.s@dsmsoft.com</t>
+  </si>
+  <si>
+    <t>DSM SOFT</t>
+  </si>
+  <si>
+    <t>Ananthram Iyer</t>
+  </si>
+  <si>
+    <t>ananthram.iyer@customercentria.com</t>
+  </si>
+  <si>
+    <t>Customer Centria</t>
+  </si>
+  <si>
+    <t>Anchal Rastogi</t>
+  </si>
+  <si>
+    <t>anrastogi@enhanceit.com</t>
+  </si>
+  <si>
+    <t>Enhance IT</t>
+  </si>
+  <si>
+    <t>Anchan Arasinaguppe</t>
+  </si>
+  <si>
+    <t>aarasina@teksystems.com</t>
+  </si>
+  <si>
+    <t>TEKsystems Global Services in India</t>
+  </si>
+  <si>
+    <t>Angel Mathew</t>
+  </si>
+  <si>
+    <t>angel.mathew@delphix.com</t>
+  </si>
+  <si>
+    <t>Delphix</t>
+  </si>
+  <si>
+    <t>Anil Chandra</t>
+  </si>
+  <si>
+    <t>anil.chandra@thoughtspot.com</t>
+  </si>
+  <si>
+    <t>ThoughtSpot</t>
+  </si>
+  <si>
+    <t>Anil K</t>
+  </si>
+  <si>
+    <t>anil.k@corestack.io</t>
+  </si>
+  <si>
+    <t>CoreStack</t>
+  </si>
+  <si>
+    <t>Anil Moturi</t>
+  </si>
+  <si>
+    <t>anil.moturi@solugenix.com</t>
+  </si>
+  <si>
+    <t>Solugenix</t>
+  </si>
+  <si>
+    <t>Anil Pereira</t>
+  </si>
+  <si>
+    <t>anil.pereira@visiblealpha.com</t>
+  </si>
+  <si>
+    <t>Visible Alpha</t>
+  </si>
+  <si>
+    <t>Anil Ramachandran</t>
+  </si>
+  <si>
+    <t>anil.kumar@flytxt.com</t>
+  </si>
+  <si>
+    <t>Flytxt</t>
+  </si>
+  <si>
+    <t>Anil Tomar</t>
+  </si>
+  <si>
+    <t>anil.tomar@fdsindia.co.in</t>
+  </si>
+  <si>
+    <t>Fourth Dimension Solutions</t>
+  </si>
+  <si>
+    <t>Animesh Kumar</t>
+  </si>
+  <si>
+    <t>animesh.kumar@novopay.in</t>
+  </si>
+  <si>
+    <t>Novopay</t>
+  </si>
+  <si>
+    <t>Anindita Ranjan</t>
+  </si>
+  <si>
+    <t>anindita.ranjan@3ds.com</t>
+  </si>
+  <si>
+    <t>Dassault Systems</t>
+  </si>
+  <si>
+    <t>Anirban Chakravorty</t>
+  </si>
+  <si>
+    <t>anirban.chakravorty@nttdata.com</t>
+  </si>
+  <si>
+    <t>NTT DATA</t>
+  </si>
+  <si>
+    <t>Anirban Ghosh</t>
+  </si>
+  <si>
+    <t>aghosh@trimaxamericas.com</t>
+  </si>
+  <si>
+    <t>Data Glove</t>
+  </si>
+  <si>
+    <t>Anirudhan Vasudevan</t>
+  </si>
+  <si>
+    <t>anirudhan.vasudevan@replicon.com</t>
+  </si>
+  <si>
+    <t>Replicon</t>
+  </si>
+  <si>
+    <t>Anish Ahmed</t>
+  </si>
+  <si>
+    <t>anish.ahmed@vaave.com</t>
+  </si>
+  <si>
+    <t>Vaave</t>
   </si>
 </sst>
 </file>
@@ -44,7 +905,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,7 +915,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -399,27 +1267,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,142 +1391,140 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,20 +1871,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="11.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="31.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="40.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="32.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,31 +1894,1467 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15.6" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" ht="15.6" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" ht="15.6" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" ht="15.6" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" ht="15.6" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" ht="15.6" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" ht="15.6" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" ht="15.6" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" ht="15.6" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" ht="15.6" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" ht="15.6" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" ht="15.6" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" ht="15.6" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" ht="15.6" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" ht="15.6" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" ht="15.6" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" ht="15.6" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" ht="15.6" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" ht="15.6" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" ht="15.6" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" ht="15.6" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" ht="15.6" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" ht="15.6" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" ht="15.6" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" ht="15.6" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" ht="15.6" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" ht="15.6" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" ht="15.6" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" ht="15.6" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" ht="15.6" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" ht="15.6" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" ht="15.6" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" ht="15.6" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" ht="15.6" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" ht="15.6" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" ht="15.6" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" ht="15.6" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" ht="15.6" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" ht="15.6" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" ht="15.6" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" ht="15.6" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" ht="15.6" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" ht="15.6" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" ht="15.6" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" ht="15.6" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" ht="15.6" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" ht="15.6" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" ht="15.6" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" ht="15.6" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" ht="15.6" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" ht="15.6" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" ht="15.6" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" ht="15.6" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" ht="15.6" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" ht="15.6" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" ht="15.6" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" ht="15.6" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" ht="15.6" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" ht="15.6" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" ht="15.6" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" ht="15.6" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" ht="15.6" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" ht="15.6" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" ht="15.6" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" ht="15.6" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" ht="15.6" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" ht="15.6" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" ht="15.6" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="sheelashivjisingh@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
